--- a/demo.xlsx
+++ b/demo.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="396" windowWidth="16608" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="16605" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="76">
   <si>
     <t>Url</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -87,43 +87,295 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>para1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>para2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>para3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo的用例测试点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_code=100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_code=20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getLoggedInUser?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>host</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Demo_002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>para1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>para2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>para3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demo的用例测试点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://openapi.baidu.com/rest/2.0/passport/users/getLoggedInUser?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>error_code=100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>error_code=20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
+  </si>
+  <si>
+    <t>Demo_003</t>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alue1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_code=101</t>
+  </si>
+  <si>
+    <t>error_code=102</t>
+  </si>
+  <si>
+    <r>
+      <t>Demo的用例测试点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/para1为10位的随即字符串</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alue3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo的用例测试点/para2为Unix格式时间戳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alue3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alue1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo的用例测试点/para3为当前日期（20120626092109）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo_004</t>
+  </si>
+  <si>
+    <t>value3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_code=103</t>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo的用例测试点/不带sign参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo_005</t>
+  </si>
+  <si>
+    <t>Demo_006</t>
+  </si>
+  <si>
+    <t>Demo_007</t>
+  </si>
+  <si>
+    <t>Demo_008</t>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_code=105</t>
+  </si>
+  <si>
+    <t>error_code=107</t>
+  </si>
+  <si>
+    <t>${key}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo的用例测试点/获取实际结果中的key作为参数依赖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${key}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo的用例测试点/获取上一个接口中key的返回值进行参数传递</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${key_02}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${key_02}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo的用例测试点/获取实际结果中的key作为参数依赖，但参数为key_02区别多个key值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo的用例测试点/获取上一个接口中key_02的返回值进行参数传递</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${cookie}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo的用例测试点/用于登陆接口，将返回的cookie作为参数依赖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_code=int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo的用例测试点/预期结果int值匹配（但int关键字不包括0）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo_009</t>
+  </si>
+  <si>
+    <t>Demo_010</t>
+  </si>
+  <si>
+    <t>Demo_011</t>
+  </si>
+  <si>
+    <t>error_code=[value1,value2,value3]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo的用例测试点/处理实际结果为json数组，写成数据时必须每个值匹配</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_code=value1#value2#value3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo的用例测试点/支持一个key可能对应多个值，只要符合value1，value2,value3其中一个则验证通过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://openapi.baidu.com/rest/2.0/passport/users/getLoggedInUser?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo_012</t>
+  </si>
+  <si>
+    <t>Demo_013</t>
+  </si>
+  <si>
+    <t>Ppara1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ppara2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ppara3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +446,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -227,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -283,19 +558,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -306,7 +568,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -328,67 +590,106 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -410,7 +711,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -452,7 +753,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,7 +788,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -698,132 +999,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="15" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="24.5" style="15" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="21"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:10" s="33" customFormat="1">
+      <c r="A6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="E6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="14" t="s">
+      <c r="H6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="J6" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -837,129 +1141,482 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="15" customWidth="1"/>
+    <col min="8" max="8" width="41" customWidth="1"/>
+    <col min="9" max="9" width="67.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="33" customFormat="1">
+      <c r="A6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="E6" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="26" t="s">
+      <c r="H6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="25" t="s">
+      <c r="C7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="27">
+      <c r="A8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>20</v>
+      <c r="G8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="27">
+      <c r="A10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27">
+      <c r="A12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="27">
+      <c r="A16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27">
+      <c r="A17" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" display="http://host"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
